--- a/biology/Botanique/Parc_de_la_Légion_d'honneur/Parc_de_la_Légion_d'honneur.xlsx
+++ b/biology/Botanique/Parc_de_la_Légion_d'honneur/Parc_de_la_Légion_d'honneur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_L%C3%A9gion_d%27honneur</t>
+          <t>Parc_de_la_Légion_d'honneur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Légion d'honneur est un parc urbain à l'Est du centre-ville de  Saint-Denis d'environ 24 hectares propriété de l'ordre national de la Légion d'honneur, qui gère le site dionysien de la Maison d'éducation de la Légion d'honneur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_L%C3%A9gion_d%27honneur</t>
+          <t>Parc_de_la_Légion_d'honneur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de la Légion d'honneur est parc urbain de 24 hectares[1] ceinturé d'une enceinte de pierre qui est une ancienne dépendance de l'abbaye de Saint-Denis. Après la fondation des maisons d'éducation de la Légion d'honneur en 1805 par Napoléon Ier, le site de Saint-Denis est retenu en 1809[1] : les bâtiments de l'abbaye et son parc sont alors disjoints de la basilique Saint-Denis, le parc étant réservé à cette institution de jeunes filles. Ce n'est qu'à la fin du XXe siècle qu'il ouvre partiellement au public.
-Au plus des bâtiments d'enseignements et ses annexes, le parc est aménagé sous forme de pelouses traversé par de larges allées empierrées, qui font l'objet d'un classement au titre des monuments historiques par décret du 19 juin 1927[2]. Au centre, face au pavillon de musique édifié en 1895[1], se trouve une statue en bronze du chevalier Bayard réalisée en 1895 par Aristide Croisy[3].
-L'espace se prolonge vers l'Est par un espace arboré de 4 hectares comprenant une grande prairie, qui est ouvert à la population en juillet et août depuis 1982 dans le cadre d'une convention avec la Ville, qui y organise le tir du feu d'artifice de la Fête nationale, le soir du 13 juillet, et diverses animations estivales[4].
-L'espace plus au nord comprend le gymnase du groupe scolaire, construit en 1980[1], et un espace vert dans l'angle Nord-Est du parc, qui reste fermé au public, sauf une allée permettant durant l'été un accès à la partie centrale par le portail situé face à la station Cimetière de Saint-Denis du tramway T1.
-Durant toute l'année, une convention avec la Ville nouée en 1970 avec l'ordre national de la Légion d'honneur permet l'usage public et gratuit des 8 hectares du sud parc[4]. Il offre des espaces arborés, des pelouses et des aires de jeux pour enfants[5]. Son entretien et son gardiennage sont assurés par des agents de Plaine commune[6]. Une entrée se trouve à l'Ouest du parc, par la rue Pinel, où l'on trouve les locaux des agents. L'entrée Ouest donne sur l'avenue Paul Vaillant-Couturier.
-La partie sud du parc a accueilli la fan-zone de l'Euro 2016 de football[4] et de la finale 2022 de la Ligue des champions[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de la Légion d'honneur est parc urbain de 24 hectares ceinturé d'une enceinte de pierre qui est une ancienne dépendance de l'abbaye de Saint-Denis. Après la fondation des maisons d'éducation de la Légion d'honneur en 1805 par Napoléon Ier, le site de Saint-Denis est retenu en 1809 : les bâtiments de l'abbaye et son parc sont alors disjoints de la basilique Saint-Denis, le parc étant réservé à cette institution de jeunes filles. Ce n'est qu'à la fin du XXe siècle qu'il ouvre partiellement au public.
+Au plus des bâtiments d'enseignements et ses annexes, le parc est aménagé sous forme de pelouses traversé par de larges allées empierrées, qui font l'objet d'un classement au titre des monuments historiques par décret du 19 juin 1927. Au centre, face au pavillon de musique édifié en 1895, se trouve une statue en bronze du chevalier Bayard réalisée en 1895 par Aristide Croisy.
+L'espace se prolonge vers l'Est par un espace arboré de 4 hectares comprenant une grande prairie, qui est ouvert à la population en juillet et août depuis 1982 dans le cadre d'une convention avec la Ville, qui y organise le tir du feu d'artifice de la Fête nationale, le soir du 13 juillet, et diverses animations estivales.
+L'espace plus au nord comprend le gymnase du groupe scolaire, construit en 1980, et un espace vert dans l'angle Nord-Est du parc, qui reste fermé au public, sauf une allée permettant durant l'été un accès à la partie centrale par le portail situé face à la station Cimetière de Saint-Denis du tramway T1.
+Durant toute l'année, une convention avec la Ville nouée en 1970 avec l'ordre national de la Légion d'honneur permet l'usage public et gratuit des 8 hectares du sud parc. Il offre des espaces arborés, des pelouses et des aires de jeux pour enfants. Son entretien et son gardiennage sont assurés par des agents de Plaine commune. Une entrée se trouve à l'Ouest du parc, par la rue Pinel, où l'on trouve les locaux des agents. L'entrée Ouest donne sur l'avenue Paul Vaillant-Couturier.
+La partie sud du parc a accueilli la fan-zone de l'Euro 2016 de football et de la finale 2022 de la Ligue des champions.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_la_L%C3%A9gion_d%27honneur</t>
+          <t>Parc_de_la_Légion_d'honneur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,15 +565,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horaires d'ouverture
-Février à mars : 7h à 18h30
+          <t>Horaires d'ouverture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Février à mars : 7h à 18h30
 Avril : de 7h à 20h
 Mai à août : de 7h à 21h
 Septembre : de 7h à 20h
 Octobre : 7h à 18h30
-Novembre à janvier : 8h à 17h30[3].
-Transports en commun
-Le parc est desservi par la ligne 13 du métro de Paris et la ligne 8 du tramway d'Île-de-France à la station Saint-Denis - Porte de Paris.
+Novembre à janvier : 8h à 17h30.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_de_la_Légion_d'honneur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_la_L%C3%A9gion_d%27honneur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Informations pratiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transports en commun</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est desservi par la ligne 13 du métro de Paris et la ligne 8 du tramway d'Île-de-France à la station Saint-Denis - Porte de Paris.
 </t>
         </is>
       </c>
